--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,46 +531,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.020131</v>
+        <v>0.07928633333333333</v>
       </c>
       <c r="H2">
-        <v>0.060393</v>
+        <v>0.237859</v>
       </c>
       <c r="I2">
-        <v>0.2024898408057616</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.2024898408057615</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1176943333333333</v>
+        <v>1.183046666666667</v>
       </c>
       <c r="N2">
-        <v>0.353083</v>
+        <v>3.54914</v>
       </c>
       <c r="O2">
-        <v>0.05829606481791055</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="P2">
-        <v>0.05829606481791055</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="Q2">
-        <v>0.002369304624333333</v>
+        <v>0.09379943236222221</v>
       </c>
       <c r="R2">
-        <v>0.021323741619</v>
+        <v>0.8441948912599999</v>
       </c>
       <c r="S2">
-        <v>0.01180436088458106</v>
+        <v>0.6222589862820888</v>
       </c>
       <c r="T2">
-        <v>0.01180436088458106</v>
+        <v>0.6222589862820888</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +593,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.020131</v>
+        <v>0.07928633333333333</v>
       </c>
       <c r="H3">
-        <v>0.060393</v>
+        <v>0.237859</v>
       </c>
       <c r="I3">
-        <v>0.2024898408057616</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.2024898408057615</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,276 +611,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.183046666666667</v>
+        <v>0.718166</v>
       </c>
       <c r="N3">
-        <v>3.54914</v>
+        <v>2.154498</v>
       </c>
       <c r="O3">
-        <v>0.5859837360842608</v>
+        <v>0.3777410137179113</v>
       </c>
       <c r="P3">
-        <v>0.5859837360842609</v>
+        <v>0.3777410137179112</v>
       </c>
       <c r="Q3">
-        <v>0.02381591244666667</v>
+        <v>0.05694074886466666</v>
       </c>
       <c r="R3">
-        <v>0.21434321202</v>
+        <v>0.512466739782</v>
       </c>
       <c r="S3">
-        <v>0.1186557534344674</v>
+        <v>0.3777410137179113</v>
       </c>
       <c r="T3">
-        <v>0.1186557534344674</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.020131</v>
-      </c>
-      <c r="H4">
-        <v>0.060393</v>
-      </c>
-      <c r="I4">
-        <v>0.2024898408057616</v>
-      </c>
-      <c r="J4">
-        <v>0.2024898408057615</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.718166</v>
-      </c>
-      <c r="N4">
-        <v>2.154498</v>
-      </c>
-      <c r="O4">
-        <v>0.3557201990978286</v>
-      </c>
-      <c r="P4">
-        <v>0.3557201990978286</v>
-      </c>
-      <c r="Q4">
-        <v>0.014457399746</v>
-      </c>
-      <c r="R4">
-        <v>0.130116597714</v>
-      </c>
-      <c r="S4">
-        <v>0.07202972648671313</v>
-      </c>
-      <c r="T4">
-        <v>0.07202972648671313</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.07928633333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.237859</v>
-      </c>
-      <c r="I5">
-        <v>0.7975101591942385</v>
-      </c>
-      <c r="J5">
-        <v>0.7975101591942384</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M5">
-        <v>0.1176943333333333</v>
-      </c>
-      <c r="N5">
-        <v>0.353083</v>
-      </c>
-      <c r="O5">
-        <v>0.05829606481791055</v>
-      </c>
-      <c r="P5">
-        <v>0.05829606481791055</v>
-      </c>
-      <c r="Q5">
-        <v>0.009331552144111112</v>
-      </c>
-      <c r="R5">
-        <v>0.083983969297</v>
-      </c>
-      <c r="S5">
-        <v>0.04649170393332949</v>
-      </c>
-      <c r="T5">
-        <v>0.04649170393332949</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.07928633333333333</v>
-      </c>
-      <c r="H6">
-        <v>0.237859</v>
-      </c>
-      <c r="I6">
-        <v>0.7975101591942385</v>
-      </c>
-      <c r="J6">
-        <v>0.7975101591942384</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.183046666666667</v>
-      </c>
-      <c r="N6">
-        <v>3.54914</v>
-      </c>
-      <c r="O6">
-        <v>0.5859837360842608</v>
-      </c>
-      <c r="P6">
-        <v>0.5859837360842609</v>
-      </c>
-      <c r="Q6">
-        <v>0.09379943236222223</v>
-      </c>
-      <c r="R6">
-        <v>0.8441948912600001</v>
-      </c>
-      <c r="S6">
-        <v>0.4673279826497935</v>
-      </c>
-      <c r="T6">
-        <v>0.4673279826497935</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.07928633333333333</v>
-      </c>
-      <c r="H7">
-        <v>0.237859</v>
-      </c>
-      <c r="I7">
-        <v>0.7975101591942385</v>
-      </c>
-      <c r="J7">
-        <v>0.7975101591942384</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.718166</v>
-      </c>
-      <c r="N7">
-        <v>2.154498</v>
-      </c>
-      <c r="O7">
-        <v>0.3557201990978286</v>
-      </c>
-      <c r="P7">
-        <v>0.3557201990978286</v>
-      </c>
-      <c r="Q7">
-        <v>0.05694074886466666</v>
-      </c>
-      <c r="R7">
-        <v>0.512466739782</v>
-      </c>
-      <c r="S7">
-        <v>0.2836904726111155</v>
-      </c>
-      <c r="T7">
-        <v>0.2836904726111155</v>
+        <v>0.3777410137179112</v>
       </c>
     </row>
   </sheetData>
